--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,28 +24,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Masakhane</t>
-  </si>
-  <si>
-    <t>Matanzima</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>4547###</t>
+  </si>
+  <si>
+    <t>Company BBB</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>matt</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>matt@comp.com</t>
+  </si>
+  <si>
+    <t>111222333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +109,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,25 +409,70 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>